--- a/biology/Zoologie/Carlos_Berg/Carlos_Berg.xlsx
+++ b/biology/Zoologie/Carlos_Berg/Carlos_Berg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Wilhelm Carl Berg ou Frederico Guillermo Carlos Berg est un  naturaliste et  entomologiste argentin d’origine germano-balte, né le 21 mars 1843 à Tuckum en Courlande (aujourd’hui Tukums en Lettonie) et mort le 19 janvier 1902 à Buenos Aires.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir travaillé quelques années dans le commerce, il s’installe à Rīga en 1865 et devient conservateur du département entomologique du Muséum, puis de l’université.
 En 1873, il est appelé par Hermann Burmeister (1807-1892), directeur du Muséum du Buenos Aires, à venir le rejoindre. Dès 1874, Berg entreprend une expédition en Patagonie pour y récolter des spécimens pour le Muséum. Cette première mission sera suivie d’autres à travers l’Argentine, mais aussi au Chili et en Uruguay.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1889 : Substitucion de nombres genericos. III. Comm. Mus. Nac. Buenos Aires, 1 : 77-80.
 1896 : Batraccios Argentinos.
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
